--- a/Data/EC/NIT-9008873339.xlsx
+++ b/Data/EC/NIT-9008873339.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17BDCE64-4A72-4A85-ACA2-24F7BE9C9AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{104114FF-33C7-4488-AFAC-20E22BCFCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4198FDC7-7C51-4201-AA9F-345399A7AD71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A87F789B-CDFC-4266-AEAD-5BC35B14E311}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,40 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051448153</t>
+  </si>
+  <si>
+    <t>AMIR PAJARO PAJARO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1001898501</t>
+  </si>
+  <si>
+    <t>DIDIER ANDRES MIRANDA SANCHEZ</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>1007856972</t>
   </si>
   <si>
     <t>HYLEANA MARGARITA BARRIOS PUERTA</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1051448153</t>
-  </si>
-  <si>
-    <t>AMIR PAJARO PAJARO</t>
+    <t>2304</t>
   </si>
   <si>
     <t>1099962566</t>
   </si>
   <si>
     <t>MILTON JESUS CONDE LOZANO</t>
-  </si>
-  <si>
-    <t>1001898501</t>
-  </si>
-  <si>
-    <t>DIDIER ANDRES MIRANDA SANCHEZ</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBF5E59-BA1E-1B6F-7891-48A33F9ECDF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AD0869-684A-5195-9580-CF3E141FBEDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,7 +863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8E2549-75A1-428B-8182-D63DBBE83FA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84197D85-8F48-4450-8B1E-596E58ACF0F7}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1041,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1055,19 +1055,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1078,19 +1078,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1101,19 +1101,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1124,19 +1124,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>15</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1147,19 +1147,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>32707</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,13 +1176,13 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1193,19 +1193,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1216,19 +1216,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1239,19 +1239,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1262,19 +1262,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1285,19 +1285,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F27" s="24">
-        <v>32707</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="24">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>

--- a/Data/EC/NIT-9008873339.xlsx
+++ b/Data/EC/NIT-9008873339.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{104114FF-33C7-4488-AFAC-20E22BCFCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8684AD3D-E3B2-45E4-8474-98574AEAD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A87F789B-CDFC-4266-AEAD-5BC35B14E311}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EEBA194D-62A8-410F-886A-382AE28673FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,34 +71,34 @@
     <t>AMIR PAJARO PAJARO</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>1001898501</t>
+  </si>
+  <si>
+    <t>DIDIER ANDRES MIRANDA SANCHEZ</t>
+  </si>
+  <si>
+    <t>1007856972</t>
+  </si>
+  <si>
+    <t>HYLEANA MARGARITA BARRIOS PUERTA</t>
+  </si>
+  <si>
+    <t>1099962566</t>
+  </si>
+  <si>
+    <t>MILTON JESUS CONDE LOZANO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
     <t>2303</t>
   </si>
   <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1001898501</t>
-  </si>
-  <si>
-    <t>DIDIER ANDRES MIRANDA SANCHEZ</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1007856972</t>
-  </si>
-  <si>
-    <t>HYLEANA MARGARITA BARRIOS PUERTA</t>
-  </si>
-  <si>
     <t>2304</t>
-  </si>
-  <si>
-    <t>1099962566</t>
-  </si>
-  <si>
-    <t>MILTON JESUS CONDE LOZANO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +197,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -210,9 +212,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,23 +412,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,10 +456,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,13 +497,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -512,7 +512,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21AD0869-684A-5195-9580-CF3E141FBEDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D68668E-C2AE-DF06-6E1B-D77C7BB48AAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +534,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -863,28 +863,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84197D85-8F48-4450-8B1E-596E58ACF0F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F07C7-3F89-4F85-B144-B2908EB2E194}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -897,7 +897,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -908,7 +908,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -919,7 +919,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -930,8 +930,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
@@ -946,8 +946,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -962,8 +962,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
@@ -978,8 +978,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
@@ -998,7 +998,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1041,122 +1041,122 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1117172</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>14</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>1117172</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>32707</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
         <v>908526</v>
@@ -1165,7 +1165,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1176,134 +1176,134 @@
         <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1117172</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>12</v>
-      </c>
       <c r="F27" s="24">
-        <v>40000</v>
+        <v>32707</v>
       </c>
       <c r="G27" s="24">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="26"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="32" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1314,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="32" t="s">
         <v>29</v>
       </c>

--- a/Data/EC/NIT-9008873339.xlsx
+++ b/Data/EC/NIT-9008873339.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8684AD3D-E3B2-45E4-8474-98574AEAD537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2679EE5-5413-471E-A8FA-19FD185FB21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EEBA194D-62A8-410F-886A-382AE28673FF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{21107390-E1E8-4AF5-B357-F35A141DF2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,9 +197,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -212,7 +210,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -406,29 +406,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,19 +447,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,13 +503,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -512,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D68668E-C2AE-DF06-6E1B-D77C7BB48AAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116C8556-E7BE-A5C4-A1E7-B8229B630526}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +540,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -863,80 +869,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4F07C7-3F89-4F85-B144-B2908EB2E194}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DD40E8-3AF0-4A8C-8BE7-6A2D9C36AD81}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -946,13 +952,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9008873339</v>
       </c>
@@ -962,13 +968,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>511107</v>
       </c>
@@ -978,8 +984,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>24</v>
       </c>
@@ -998,7 +1004,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1037,20 +1043,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>40000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>877803</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1060,20 +1066,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>40000</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1117172</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1083,20 +1089,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>40000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>908526</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1106,20 +1112,20 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>877803</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1129,20 +1135,20 @@
       <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1117172</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1152,20 +1158,20 @@
       <c r="D21" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46400</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>908526</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1175,20 +1181,20 @@
       <c r="D22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>46400</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>877803</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1198,20 +1204,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>46400</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>877803</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1221,20 +1227,20 @@
       <c r="D24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>46400</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1117172</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1244,20 +1250,20 @@
       <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>46400</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>908526</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1267,58 +1273,58 @@
       <c r="D26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>46400</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>877803</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="21" t="s">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="26">
         <v>32707</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="26">
         <v>908526</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32" s="32" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="32"/>
+      <c r="C32" s="34"/>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10">
-      <c r="B33" s="32" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="32"/>
+      <c r="C33" s="34"/>
       <c r="H33" s="1" t="s">
         <v>31</v>
       </c>
